--- a/APS_POTA_Comparacoes.xlsx
+++ b/APS_POTA_Comparacoes.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleisson.silva\Documents\FACULDADE\POTA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleisson.silva\Documents\GitHub\APS_POTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7767D41B-8AE9-42B0-8047-550980C8B658}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371F99B1-64E3-440C-8476-CC25708A2218}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A38C6620-D9AD-4075-9978-9B6A17045F60}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A38C6620-D9AD-4075-9978-9B6A17045F60}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -6161,8 +6161,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2638B222-5ACB-49ED-BDD4-E46D24EB552C}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="L55" sqref="L55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/APS_POTA_Comparacoes.xlsx
+++ b/APS_POTA_Comparacoes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleisson.silva\Documents\GitHub\APS_POTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{371F99B1-64E3-440C-8476-CC25708A2218}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2375E9B3-3354-4170-BD85-13C4FF9DF0B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A38C6620-D9AD-4075-9978-9B6A17045F60}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A38C6620-D9AD-4075-9978-9B6A17045F60}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -112,8 +112,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -141,13 +149,50 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -333,17 +378,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>30.56</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.74</c:v>
+                  <c:v>22.72</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>14.06</c:v>
+                  <c:v>13.96</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.180000000000007</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>38.840000000000003</c:v>
+                  <c:v>38.340000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>114.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -699,17 +753,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>140.08000000000001</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>75.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>40.380000000000003</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>190.54</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>120</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>99.24</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>146.26</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1065,17 +1128,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>4573.6000000000004</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>1448.84</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>707.02</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>1508.46</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>956</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>756.18</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>353.46</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1431,17 +1503,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>19051.2</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>5448.2</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>2660.46</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>3533.36</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>2214</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1749.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>604.52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1797,17 +1878,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1983934.56</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>505517.02</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>250643.22</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>50703.32</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>31926</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>23598.98</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2163,17 +2253,26 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>199803287.03999999</c:v>
+                </c:pt>
                 <c:pt idx="1">
                   <c:v>50056882.780000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>24755570.539999999</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>666054.68000000005</c:v>
+                </c:pt>
                 <c:pt idx="4">
                   <c:v>420846</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>308811.40000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>50105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5836,7 +5935,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E67E331-EC7B-42F0-9FCB-80ECE1E11981}" name="Tabela1" displayName="Tabela1" ref="A1:B10" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E67E331-EC7B-42F0-9FCB-80ECE1E11981}" name="Tabela1" displayName="Tabela1" ref="A1:B10" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="A1:B10" xr:uid="{06E25A7B-7312-4BDE-B3A9-C8EAF0FC2E49}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{03DED12F-5604-42FF-9543-8B5A34E5D916}" name="Algoritmos"/>
@@ -5847,7 +5946,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1613FA76-7F3C-42B2-A5E0-C0F3CBFCCEE7}" name="Tabela2" displayName="Tabela2" ref="M1:S13" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1613FA76-7F3C-42B2-A5E0-C0F3CBFCCEE7}" name="Tabela2" displayName="Tabela2" ref="M1:S13" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="M1:S13" xr:uid="{E0979EA3-190D-4289-8899-43853B985422}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F75D73BC-5B6D-467B-8A85-BC691F62FFA2}" name="Coluna1"/>
@@ -5859,6 +5958,61 @@
     <tableColumn id="7" xr3:uid="{59CD14AE-5ADF-4F1B-9793-305B22E7F4E8}" name="Coluna7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AA5C14AA-E157-4854-A548-D1CE67BCFB1E}" name="Tabela3" displayName="Tabela3" ref="C1:D10" totalsRowShown="0" headerRowDxfId="4">
+  <autoFilter ref="C1:D10" xr:uid="{B8824F09-8ABE-448F-B8D7-9B5BD6484D94}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{63FCEEA7-7893-4A30-A46B-3D5619E205C7}" name="Algoritmos"/>
+    <tableColumn id="2" xr3:uid="{567A58BB-2D67-4B1F-BE6F-F3836ADCA633}" name="Tam 10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0D62B4CA-6ECE-4361-A0E9-DFCDE4C2982A}" name="Tabela6" displayName="Tabela6" ref="E1:F10" totalsRowShown="0" headerRowDxfId="3">
+  <autoFilter ref="E1:F10" xr:uid="{D46B99CF-9722-4D38-BE39-13B77D8AED37}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EAB72EAD-ED97-47B2-B7F1-11144BD5DBA1}" name="Algoritmos"/>
+    <tableColumn id="2" xr3:uid="{3B1B2CDC-2CDE-454F-B123-14CB85B97EFB}" name="Tam 50"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F349569F-DA5D-412F-950C-8508387F1EF5}" name="Tabela7" displayName="Tabela7" ref="G1:H10" totalsRowShown="0" headerRowDxfId="2">
+  <autoFilter ref="G1:H10" xr:uid="{7F2AAB2A-FC1A-4155-9F6C-954EEFDD3153}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3BD7833E-8028-42AF-8579-E318C81B83FF}" name="Algoritmos"/>
+    <tableColumn id="2" xr3:uid="{E8222884-D448-4262-88FD-E15FA8923786}" name="Tam 100"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C2E47C75-BF5C-4A2C-BF43-38D7DB76CD09}" name="Tabela8" displayName="Tabela8" ref="I1:J10" totalsRowShown="0" headerRowDxfId="1">
+  <autoFilter ref="I1:J10" xr:uid="{C349E525-FDEC-4176-B8FD-98533608E716}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1A8CF845-425D-4A86-895C-20B932C47209}" name="Algoritmos"/>
+    <tableColumn id="2" xr3:uid="{55A916CF-A0FD-4CE6-9A13-407D035C89A6}" name="Tam 1000"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{72A536D2-0C49-44B3-8965-DE362EBD3B04}" name="Tabela10" displayName="Tabela10" ref="K1:L10" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="K1:L10" xr:uid="{DBB670AF-4306-44C6-B250-8AA003428D46}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3F7185B1-983B-43E1-B03D-994830F35C2F}" name="Algoritmos"/>
+    <tableColumn id="2" xr3:uid="{3F11C737-18D9-4A29-8DA6-E72B1B52FE8F}" name="Tam 10000"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -6161,8 +6315,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2638B222-5ACB-49ED-BDD4-E46D24EB552C}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6170,12 +6324,13 @@
     <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12" customWidth="1"/>
     <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
     <col min="9" max="9" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.85546875" customWidth="1"/>
     <col min="11" max="11" width="25.28515625" customWidth="1"/>
     <col min="12" max="12" width="46" customWidth="1"/>
     <col min="13" max="13" width="28.7109375" bestFit="1" customWidth="1"/>
@@ -6184,62 +6339,62 @@
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" t="s">
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="1" t="s">
         <v>24</v>
       </c>
     </row>
@@ -6247,20 +6402,44 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <f>N3/N13</f>
+        <v>30.56</v>
+      </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
+      <c r="D2">
+        <f>O3/N13</f>
+        <v>140.08000000000001</v>
+      </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
+      <c r="F2">
+        <f>P3/N13</f>
+        <v>4573.6000000000004</v>
+      </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
+      <c r="H2">
+        <f>Q3/N13</f>
+        <v>19051.2</v>
+      </c>
       <c r="I2" t="s">
         <v>1</v>
       </c>
+      <c r="J2">
+        <f>R3/N13</f>
+        <v>1983934.56</v>
+      </c>
       <c r="K2" t="s">
         <v>1</v>
+      </c>
+      <c r="L2">
+        <f>S3/N13</f>
+        <v>199803287.03999999</v>
       </c>
       <c r="M2" t="s">
         <v>16</v>
@@ -6290,7 +6469,7 @@
       </c>
       <c r="B3">
         <f>N4/N13</f>
-        <v>22.74</v>
+        <v>22.72</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -6329,6 +6508,24 @@
       </c>
       <c r="M3" t="s">
         <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1528</v>
+      </c>
+      <c r="O3">
+        <v>7004</v>
+      </c>
+      <c r="P3">
+        <v>228680</v>
+      </c>
+      <c r="Q3">
+        <v>952560</v>
+      </c>
+      <c r="R3">
+        <v>99196728</v>
+      </c>
+      <c r="S3">
+        <v>9990164352</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -6337,7 +6534,7 @@
       </c>
       <c r="B4">
         <f>N5/N13</f>
-        <v>14.06</v>
+        <v>13.96</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
@@ -6378,7 +6575,7 @@
         <v>2</v>
       </c>
       <c r="N4">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="O4">
         <v>3760</v>
@@ -6400,26 +6597,50 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="B5">
+        <f>N6/N13</f>
+        <v>71.180000000000007</v>
+      </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
+      <c r="D5">
+        <f>O6/N13</f>
+        <v>190.54</v>
+      </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
+      <c r="F5">
+        <f>P6/N13</f>
+        <v>1508.46</v>
+      </c>
       <c r="G5" t="s">
         <v>4</v>
       </c>
+      <c r="H5">
+        <f>Q6/N13</f>
+        <v>3533.36</v>
+      </c>
       <c r="I5" t="s">
         <v>4</v>
       </c>
+      <c r="J5">
+        <f>R6/N13</f>
+        <v>50703.32</v>
+      </c>
       <c r="K5" t="s">
         <v>4</v>
       </c>
+      <c r="L5">
+        <f>S6/N13</f>
+        <v>666054.68000000005</v>
+      </c>
       <c r="M5" t="s">
         <v>3</v>
       </c>
       <c r="N5">
-        <v>703</v>
+        <v>698</v>
       </c>
       <c r="O5">
         <v>2019</v>
@@ -6483,6 +6704,24 @@
       <c r="M6" t="s">
         <v>4</v>
       </c>
+      <c r="N6">
+        <v>3559</v>
+      </c>
+      <c r="O6">
+        <v>9527</v>
+      </c>
+      <c r="P6">
+        <v>75423</v>
+      </c>
+      <c r="Q6">
+        <v>176668</v>
+      </c>
+      <c r="R6">
+        <v>2535166</v>
+      </c>
+      <c r="S6">
+        <v>33302734</v>
+      </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -6490,7 +6729,7 @@
       </c>
       <c r="B7">
         <f>N8/N13</f>
-        <v>38.840000000000003</v>
+        <v>38.340000000000003</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
@@ -6553,26 +6792,50 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
+      <c r="B8">
+        <f>N9/N13</f>
+        <v>114.04</v>
+      </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
+      <c r="D8">
+        <f>O9/N13</f>
+        <v>146.26</v>
+      </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
+      <c r="F8">
+        <f>P9/N13</f>
+        <v>353.46</v>
+      </c>
       <c r="G8" t="s">
         <v>7</v>
       </c>
+      <c r="H8">
+        <f>Q9/N13</f>
+        <v>604.52</v>
+      </c>
       <c r="I8" t="s">
         <v>7</v>
       </c>
+      <c r="J8">
+        <f>R9/N13</f>
+        <v>5105</v>
+      </c>
       <c r="K8" t="s">
         <v>7</v>
       </c>
+      <c r="L8">
+        <f>S9/N13</f>
+        <v>50105</v>
+      </c>
       <c r="M8" t="s">
         <v>6</v>
       </c>
       <c r="N8">
-        <v>1942</v>
+        <v>1917</v>
       </c>
       <c r="O8">
         <v>4962</v>
@@ -6612,6 +6875,24 @@
       <c r="M9" t="s">
         <v>7</v>
       </c>
+      <c r="N9">
+        <v>5702</v>
+      </c>
+      <c r="O9">
+        <v>7313</v>
+      </c>
+      <c r="P9">
+        <v>17673</v>
+      </c>
+      <c r="Q9">
+        <v>30226</v>
+      </c>
+      <c r="R9">
+        <v>255250</v>
+      </c>
+      <c r="S9">
+        <v>2505250</v>
+      </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
@@ -6651,10 +6932,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <tableParts count="7">
     <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
--- a/APS_POTA_Comparacoes.xlsx
+++ b/APS_POTA_Comparacoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleisson.silva\Documents\GitHub\APS_POTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2375E9B3-3354-4170-BD85-13C4FF9DF0B4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2707A75E-3A39-493B-849A-CC7D07E81E39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A38C6620-D9AD-4075-9978-9B6A17045F60}"/>
   </bookViews>
@@ -399,6 +399,9 @@
                 <c:pt idx="6">
                   <c:v>114.04</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>65</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -774,6 +777,9 @@
                 <c:pt idx="6">
                   <c:v>146.26</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>105.28</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1149,6 +1155,9 @@
                 <c:pt idx="6">
                   <c:v>353.46</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>452.16</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1524,6 +1533,9 @@
                 <c:pt idx="6">
                   <c:v>604.52</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>924.68</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1899,6 +1911,9 @@
                 <c:pt idx="6">
                   <c:v>5105</c:v>
                 </c:pt>
+                <c:pt idx="8">
+                  <c:v>10044</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2273,6 +2288,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>50105</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>100044</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6315,8 +6333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2638B222-5ACB-49ED-BDD4-E46D24EB552C}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6898,20 +6916,44 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
+      <c r="B10">
+        <f>N11/N13</f>
+        <v>65</v>
+      </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
+      <c r="D10">
+        <f>O11/N13</f>
+        <v>105.28</v>
+      </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
+      <c r="F10">
+        <f>P11/N13</f>
+        <v>452.16</v>
+      </c>
       <c r="G10" t="s">
         <v>9</v>
       </c>
+      <c r="H10">
+        <f>Q11/N13</f>
+        <v>924.68</v>
+      </c>
       <c r="I10" t="s">
         <v>9</v>
       </c>
+      <c r="J10">
+        <f>R11/N13</f>
+        <v>10044</v>
+      </c>
       <c r="K10" t="s">
         <v>9</v>
+      </c>
+      <c r="L10">
+        <f>S11/N13</f>
+        <v>100044</v>
       </c>
       <c r="M10" t="s">
         <v>8</v>
@@ -6920,6 +6962,24 @@
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M11" t="s">
         <v>9</v>
+      </c>
+      <c r="N11">
+        <v>3250</v>
+      </c>
+      <c r="O11">
+        <v>5264</v>
+      </c>
+      <c r="P11">
+        <v>22608</v>
+      </c>
+      <c r="Q11">
+        <v>46234</v>
+      </c>
+      <c r="R11">
+        <v>502200</v>
+      </c>
+      <c r="S11">
+        <v>5002200</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">

--- a/APS_POTA_Comparacoes.xlsx
+++ b/APS_POTA_Comparacoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleisson.silva\Documents\GitHub\APS_POTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2707A75E-3A39-493B-849A-CC7D07E81E39}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112B52B0-01F9-441D-AD68-FC64DDB09D97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A38C6620-D9AD-4075-9978-9B6A17045F60}"/>
   </bookViews>
@@ -149,14 +149,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="13">
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
     <dxf>
       <font>
         <b/>
@@ -376,7 +395,7 @@
             <c:numRef>
               <c:f>Planilha1!$B$2:$B$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>30.56</c:v>
@@ -496,7 +515,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -754,7 +773,7 @@
             <c:numRef>
               <c:f>Planilha1!$D$2:$D$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>140.08000000000001</c:v>
@@ -874,7 +893,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1132,7 +1151,7 @@
             <c:numRef>
               <c:f>Planilha1!$F$2:$F$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>4573.6000000000004</c:v>
@@ -1252,7 +1271,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1510,7 +1529,7 @@
             <c:numRef>
               <c:f>Planilha1!$H$2:$H$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>19051.2</c:v>
@@ -1630,7 +1649,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1888,7 +1907,7 @@
             <c:numRef>
               <c:f>Planilha1!$J$2:$J$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1983934.56</c:v>
@@ -2008,7 +2027,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2266,7 +2285,7 @@
             <c:numRef>
               <c:f>Planilha1!$L$2:$L$10</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>199803287.03999999</c:v>
@@ -2386,7 +2405,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -5953,18 +5972,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E67E331-EC7B-42F0-9FCB-80ECE1E11981}" name="Tabela1" displayName="Tabela1" ref="A1:B10" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9E67E331-EC7B-42F0-9FCB-80ECE1E11981}" name="Tabela1" displayName="Tabela1" ref="A1:B10" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="A1:B10" xr:uid="{06E25A7B-7312-4BDE-B3A9-C8EAF0FC2E49}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{03DED12F-5604-42FF-9543-8B5A34E5D916}" name="Algoritmos"/>
-    <tableColumn id="2" xr3:uid="{F2B39AF4-F40C-446A-AAFD-5BC1F4F175E5}" name="Tam 5"/>
+    <tableColumn id="2" xr3:uid="{F2B39AF4-F40C-446A-AAFD-5BC1F4F175E5}" name="Tam 5" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1613FA76-7F3C-42B2-A5E0-C0F3CBFCCEE7}" name="Tabela2" displayName="Tabela2" ref="M1:S13" totalsRowShown="0" headerRowDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1613FA76-7F3C-42B2-A5E0-C0F3CBFCCEE7}" name="Tabela2" displayName="Tabela2" ref="M1:S13" totalsRowShown="0" headerRowDxfId="11">
   <autoFilter ref="M1:S13" xr:uid="{E0979EA3-190D-4289-8899-43853B985422}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F75D73BC-5B6D-467B-8A85-BC691F62FFA2}" name="Coluna1"/>
@@ -5980,55 +5999,55 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AA5C14AA-E157-4854-A548-D1CE67BCFB1E}" name="Tabela3" displayName="Tabela3" ref="C1:D10" totalsRowShown="0" headerRowDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AA5C14AA-E157-4854-A548-D1CE67BCFB1E}" name="Tabela3" displayName="Tabela3" ref="C1:D10" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="C1:D10" xr:uid="{B8824F09-8ABE-448F-B8D7-9B5BD6484D94}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{63FCEEA7-7893-4A30-A46B-3D5619E205C7}" name="Algoritmos"/>
-    <tableColumn id="2" xr3:uid="{567A58BB-2D67-4B1F-BE6F-F3836ADCA633}" name="Tam 10"/>
+    <tableColumn id="2" xr3:uid="{567A58BB-2D67-4B1F-BE6F-F3836ADCA633}" name="Tam 10" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0D62B4CA-6ECE-4361-A0E9-DFCDE4C2982A}" name="Tabela6" displayName="Tabela6" ref="E1:F10" totalsRowShown="0" headerRowDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0D62B4CA-6ECE-4361-A0E9-DFCDE4C2982A}" name="Tabela6" displayName="Tabela6" ref="E1:F10" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="E1:F10" xr:uid="{D46B99CF-9722-4D38-BE39-13B77D8AED37}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{EAB72EAD-ED97-47B2-B7F1-11144BD5DBA1}" name="Algoritmos"/>
-    <tableColumn id="2" xr3:uid="{3B1B2CDC-2CDE-454F-B123-14CB85B97EFB}" name="Tam 50"/>
+    <tableColumn id="2" xr3:uid="{3B1B2CDC-2CDE-454F-B123-14CB85B97EFB}" name="Tam 50" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F349569F-DA5D-412F-950C-8508387F1EF5}" name="Tabela7" displayName="Tabela7" ref="G1:H10" totalsRowShown="0" headerRowDxfId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F349569F-DA5D-412F-950C-8508387F1EF5}" name="Tabela7" displayName="Tabela7" ref="G1:H10" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="G1:H10" xr:uid="{7F2AAB2A-FC1A-4155-9F6C-954EEFDD3153}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3BD7833E-8028-42AF-8579-E318C81B83FF}" name="Algoritmos"/>
-    <tableColumn id="2" xr3:uid="{E8222884-D448-4262-88FD-E15FA8923786}" name="Tam 100"/>
+    <tableColumn id="2" xr3:uid="{E8222884-D448-4262-88FD-E15FA8923786}" name="Tam 100" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C2E47C75-BF5C-4A2C-BF43-38D7DB76CD09}" name="Tabela8" displayName="Tabela8" ref="I1:J10" totalsRowShown="0" headerRowDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C2E47C75-BF5C-4A2C-BF43-38D7DB76CD09}" name="Tabela8" displayName="Tabela8" ref="I1:J10" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="I1:J10" xr:uid="{C349E525-FDEC-4176-B8FD-98533608E716}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1A8CF845-425D-4A86-895C-20B932C47209}" name="Algoritmos"/>
-    <tableColumn id="2" xr3:uid="{55A916CF-A0FD-4CE6-9A13-407D035C89A6}" name="Tam 1000"/>
+    <tableColumn id="2" xr3:uid="{55A916CF-A0FD-4CE6-9A13-407D035C89A6}" name="Tam 1000" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{72A536D2-0C49-44B3-8965-DE362EBD3B04}" name="Tabela10" displayName="Tabela10" ref="K1:L10" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{72A536D2-0C49-44B3-8965-DE362EBD3B04}" name="Tabela10" displayName="Tabela10" ref="K1:L10" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="K1:L10" xr:uid="{DBB670AF-4306-44C6-B250-8AA003428D46}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3F7185B1-983B-43E1-B03D-994830F35C2F}" name="Algoritmos"/>
-    <tableColumn id="2" xr3:uid="{3F11C737-18D9-4A29-8DA6-E72B1B52FE8F}" name="Tam 10000"/>
+    <tableColumn id="2" xr3:uid="{3F11C737-18D9-4A29-8DA6-E72B1B52FE8F}" name="Tam 10000" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight17" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -6333,8 +6352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2638B222-5ACB-49ED-BDD4-E46D24EB552C}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L35" sqref="L35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6420,42 +6439,42 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <f>N3/N13</f>
         <v>30.56</v>
       </c>
       <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <f>O3/N13</f>
         <v>140.08000000000001</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="2">
         <f>P3/N13</f>
         <v>4573.6000000000004</v>
       </c>
       <c r="G2" t="s">
         <v>1</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="2">
         <f>Q3/N13</f>
         <v>19051.2</v>
       </c>
       <c r="I2" t="s">
         <v>1</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="2">
         <f>R3/N13</f>
         <v>1983934.56</v>
       </c>
       <c r="K2" t="s">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="2">
         <f>S3/N13</f>
         <v>199803287.03999999</v>
       </c>
@@ -6485,42 +6504,42 @@
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <f>N4/N13</f>
         <v>22.72</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <f>O4/N13</f>
         <v>75.2</v>
       </c>
       <c r="E3" t="s">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="2">
         <f>P4/N13</f>
         <v>1448.84</v>
       </c>
       <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="2">
         <f>Q4/N13</f>
         <v>5448.2</v>
       </c>
       <c r="I3" t="s">
         <v>2</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="2">
         <f>R4/N13</f>
         <v>505517.02</v>
       </c>
       <c r="K3" t="s">
         <v>2</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="2">
         <f>S4/N13</f>
         <v>50056882.780000001</v>
       </c>
@@ -6550,42 +6569,42 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <f>N5/N13</f>
         <v>13.96</v>
       </c>
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <f>O5/N13</f>
         <v>40.380000000000003</v>
       </c>
       <c r="E4" t="s">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="2">
         <f>P5/N13</f>
         <v>707.02</v>
       </c>
       <c r="G4" t="s">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="2">
         <f>Q5/N13</f>
         <v>2660.46</v>
       </c>
       <c r="I4" t="s">
         <v>3</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="2">
         <f>R5/N13</f>
         <v>250643.22</v>
       </c>
       <c r="K4" t="s">
         <v>3</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="2">
         <f>S5/N13</f>
         <v>24755570.539999999</v>
       </c>
@@ -6615,42 +6634,42 @@
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <f>N6/N13</f>
         <v>71.180000000000007</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <f>O6/N13</f>
         <v>190.54</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="2">
         <f>P6/N13</f>
         <v>1508.46</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="2">
         <f>Q6/N13</f>
         <v>3533.36</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="2">
         <f>R6/N13</f>
         <v>50703.32</v>
       </c>
       <c r="K5" t="s">
         <v>4</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="2">
         <f>S6/N13</f>
         <v>666054.68000000005</v>
       </c>
@@ -6680,42 +6699,42 @@
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <f>N7/N13</f>
         <v>44</v>
       </c>
       <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <f>O7/N13</f>
         <v>120</v>
       </c>
       <c r="E6" t="s">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="2">
         <f>P7/N13</f>
         <v>956</v>
       </c>
       <c r="G6" t="s">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="2">
         <f>Q7/N13</f>
         <v>2214</v>
       </c>
       <c r="I6" t="s">
         <v>5</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="2">
         <f>R7/N13</f>
         <v>31926</v>
       </c>
       <c r="K6" t="s">
         <v>5</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="2">
         <f>S7/N13</f>
         <v>420846</v>
       </c>
@@ -6745,42 +6764,42 @@
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <f>N8/N13</f>
         <v>38.340000000000003</v>
       </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <f>O8/N13</f>
         <v>99.24</v>
       </c>
       <c r="E7" t="s">
         <v>6</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="2">
         <f>P8/N13</f>
         <v>756.18</v>
       </c>
       <c r="G7" t="s">
         <v>6</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="2">
         <f>Q8/N13</f>
         <v>1749.6</v>
       </c>
       <c r="I7" t="s">
         <v>6</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="2">
         <f>R8/N13</f>
         <v>23598.98</v>
       </c>
       <c r="K7" t="s">
         <v>6</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="2">
         <f>S8/N13</f>
         <v>308811.40000000002</v>
       </c>
@@ -6810,42 +6829,42 @@
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <f>N9/N13</f>
         <v>114.04</v>
       </c>
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <f>O9/N13</f>
         <v>146.26</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="2">
         <f>P9/N13</f>
         <v>353.46</v>
       </c>
       <c r="G8" t="s">
         <v>7</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="2">
         <f>Q9/N13</f>
         <v>604.52</v>
       </c>
       <c r="I8" t="s">
         <v>7</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="2">
         <f>R9/N13</f>
         <v>5105</v>
       </c>
       <c r="K8" t="s">
         <v>7</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="2">
         <f>S9/N13</f>
         <v>50105</v>
       </c>
@@ -6875,21 +6894,27 @@
       <c r="A9" t="s">
         <v>8</v>
       </c>
+      <c r="B9" s="2"/>
       <c r="C9" t="s">
         <v>8</v>
       </c>
+      <c r="D9" s="2"/>
       <c r="E9" t="s">
         <v>8</v>
       </c>
+      <c r="F9" s="2"/>
       <c r="G9" t="s">
         <v>8</v>
       </c>
+      <c r="H9" s="2"/>
       <c r="I9" t="s">
         <v>8</v>
       </c>
+      <c r="J9" s="2"/>
       <c r="K9" t="s">
         <v>8</v>
       </c>
+      <c r="L9" s="2"/>
       <c r="M9" t="s">
         <v>7</v>
       </c>
@@ -6916,42 +6941,42 @@
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <f>N11/N13</f>
         <v>65</v>
       </c>
       <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <f>O11/N13</f>
         <v>105.28</v>
       </c>
       <c r="E10" t="s">
         <v>9</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="2">
         <f>P11/N13</f>
         <v>452.16</v>
       </c>
       <c r="G10" t="s">
         <v>9</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="2">
         <f>Q11/N13</f>
         <v>924.68</v>
       </c>
       <c r="I10" t="s">
         <v>9</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="2">
         <f>R11/N13</f>
         <v>10044</v>
       </c>
       <c r="K10" t="s">
         <v>9</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="2">
         <f>S11/N13</f>
         <v>100044</v>
       </c>

--- a/APS_POTA_Comparacoes.xlsx
+++ b/APS_POTA_Comparacoes.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gleisson.silva\Documents\GitHub\APS_POTA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112B52B0-01F9-441D-AD68-FC64DDB09D97}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9AC7B89-11DF-477B-8CB5-0B9514B9DF6A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A38C6620-D9AD-4075-9978-9B6A17045F60}"/>
   </bookViews>
@@ -57,9 +57,6 @@
     <t>Count Sort</t>
   </si>
   <si>
-    <t>Bucker Sort</t>
-  </si>
-  <si>
     <t>Radix Sort</t>
   </si>
   <si>
@@ -106,6 +103,9 @@
   </si>
   <si>
     <t>Coluna7</t>
+  </si>
+  <si>
+    <t>Bucket Sort</t>
   </si>
 </sst>
 </file>
@@ -162,16 +162,33 @@
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <font>
+        <b/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
     </dxf>
     <dxf>
       <numFmt numFmtId="1" formatCode="0"/>
@@ -187,24 +204,7 @@
       </font>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
+      <numFmt numFmtId="1" formatCode="0"/>
     </dxf>
     <dxf>
       <font>
@@ -383,7 +383,7 @@
                   <c:v>Count Sort</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Bucker Sort</c:v>
+                  <c:v>Bucket Sort</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Radix Sort</c:v>
@@ -417,6 +417,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>114.04</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>188.84</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>65</c:v>
@@ -761,7 +764,7 @@
                   <c:v>Count Sort</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Bucker Sort</c:v>
+                  <c:v>Bucket Sort</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Radix Sort</c:v>
@@ -795,6 +798,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>146.26</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>383.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>105.28</c:v>
@@ -1139,7 +1145,7 @@
                   <c:v>Count Sort</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Bucker Sort</c:v>
+                  <c:v>Bucket Sort</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Radix Sort</c:v>
@@ -1173,6 +1179,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>353.46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1868.46</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>452.16</c:v>
@@ -1517,7 +1526,7 @@
                   <c:v>Count Sort</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Bucker Sort</c:v>
+                  <c:v>Bucket Sort</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Radix Sort</c:v>
@@ -1551,6 +1560,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>604.52</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3783.32</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>924.68</c:v>
@@ -1895,7 +1907,7 @@
                   <c:v>Count Sort</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Bucker Sort</c:v>
+                  <c:v>Bucket Sort</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Radix Sort</c:v>
@@ -1929,6 +1941,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>5105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>47477.82</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>10044</c:v>
@@ -2273,7 +2288,7 @@
                   <c:v>Count Sort</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>Bucker Sort</c:v>
+                  <c:v>Bucket Sort</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>Radix Sort</c:v>
@@ -2307,6 +2322,9 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>50105</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1376136.4</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>100044</c:v>
@@ -5976,14 +5994,14 @@
   <autoFilter ref="A1:B10" xr:uid="{06E25A7B-7312-4BDE-B3A9-C8EAF0FC2E49}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{03DED12F-5604-42FF-9543-8B5A34E5D916}" name="Algoritmos"/>
-    <tableColumn id="2" xr3:uid="{F2B39AF4-F40C-446A-AAFD-5BC1F4F175E5}" name="Tam 5" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{F2B39AF4-F40C-446A-AAFD-5BC1F4F175E5}" name="Tam 5" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1613FA76-7F3C-42B2-A5E0-C0F3CBFCCEE7}" name="Tabela2" displayName="Tabela2" ref="M1:S13" totalsRowShown="0" headerRowDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{1613FA76-7F3C-42B2-A5E0-C0F3CBFCCEE7}" name="Tabela2" displayName="Tabela2" ref="M1:S13" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="M1:S13" xr:uid="{E0979EA3-190D-4289-8899-43853B985422}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{F75D73BC-5B6D-467B-8A85-BC691F62FFA2}" name="Coluna1"/>
@@ -5999,51 +6017,51 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AA5C14AA-E157-4854-A548-D1CE67BCFB1E}" name="Tabela3" displayName="Tabela3" ref="C1:D10" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AA5C14AA-E157-4854-A548-D1CE67BCFB1E}" name="Tabela3" displayName="Tabela3" ref="C1:D10" totalsRowShown="0" headerRowDxfId="9">
   <autoFilter ref="C1:D10" xr:uid="{B8824F09-8ABE-448F-B8D7-9B5BD6484D94}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{63FCEEA7-7893-4A30-A46B-3D5619E205C7}" name="Algoritmos"/>
-    <tableColumn id="2" xr3:uid="{567A58BB-2D67-4B1F-BE6F-F3836ADCA633}" name="Tam 10" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{567A58BB-2D67-4B1F-BE6F-F3836ADCA633}" name="Tam 10" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0D62B4CA-6ECE-4361-A0E9-DFCDE4C2982A}" name="Tabela6" displayName="Tabela6" ref="E1:F10" totalsRowShown="0" headerRowDxfId="9">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{0D62B4CA-6ECE-4361-A0E9-DFCDE4C2982A}" name="Tabela6" displayName="Tabela6" ref="E1:F10" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="E1:F10" xr:uid="{D46B99CF-9722-4D38-BE39-13B77D8AED37}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{EAB72EAD-ED97-47B2-B7F1-11144BD5DBA1}" name="Algoritmos"/>
-    <tableColumn id="2" xr3:uid="{3B1B2CDC-2CDE-454F-B123-14CB85B97EFB}" name="Tam 50" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{3B1B2CDC-2CDE-454F-B123-14CB85B97EFB}" name="Tam 50" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F349569F-DA5D-412F-950C-8508387F1EF5}" name="Tabela7" displayName="Tabela7" ref="G1:H10" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F349569F-DA5D-412F-950C-8508387F1EF5}" name="Tabela7" displayName="Tabela7" ref="G1:H10" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="G1:H10" xr:uid="{7F2AAB2A-FC1A-4155-9F6C-954EEFDD3153}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3BD7833E-8028-42AF-8579-E318C81B83FF}" name="Algoritmos"/>
-    <tableColumn id="2" xr3:uid="{E8222884-D448-4262-88FD-E15FA8923786}" name="Tam 100" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{E8222884-D448-4262-88FD-E15FA8923786}" name="Tam 100" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C2E47C75-BF5C-4A2C-BF43-38D7DB76CD09}" name="Tabela8" displayName="Tabela8" ref="I1:J10" totalsRowShown="0" headerRowDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{C2E47C75-BF5C-4A2C-BF43-38D7DB76CD09}" name="Tabela8" displayName="Tabela8" ref="I1:J10" totalsRowShown="0" headerRowDxfId="3">
   <autoFilter ref="I1:J10" xr:uid="{C349E525-FDEC-4176-B8FD-98533608E716}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{1A8CF845-425D-4A86-895C-20B932C47209}" name="Algoritmos"/>
-    <tableColumn id="2" xr3:uid="{55A916CF-A0FD-4CE6-9A13-407D035C89A6}" name="Tam 1000" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{55A916CF-A0FD-4CE6-9A13-407D035C89A6}" name="Tam 1000" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{72A536D2-0C49-44B3-8965-DE362EBD3B04}" name="Tabela10" displayName="Tabela10" ref="K1:L10" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{72A536D2-0C49-44B3-8965-DE362EBD3B04}" name="Tabela10" displayName="Tabela10" ref="K1:L10" totalsRowShown="0" headerRowDxfId="1">
   <autoFilter ref="K1:L10" xr:uid="{DBB670AF-4306-44C6-B250-8AA003428D46}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3F7185B1-983B-43E1-B03D-994830F35C2F}" name="Algoritmos"/>
@@ -6352,8 +6370,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2638B222-5ACB-49ED-BDD4-E46D24EB552C}">
   <dimension ref="A1:S13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6381,58 +6399,58 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -6479,25 +6497,25 @@
         <v>199803287.03999999</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O2" t="s">
         <v>10</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>11</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>12</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>13</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>14</v>
-      </c>
-      <c r="S2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -6892,29 +6910,47 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="B9" s="2">
+        <f>N10/N13</f>
+        <v>188.84</v>
+      </c>
       <c r="C9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="D9" s="2">
+        <f>O10/N13</f>
+        <v>383.4</v>
+      </c>
       <c r="E9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="F9" s="2">
+        <f>P10/N13</f>
+        <v>1868.46</v>
+      </c>
       <c r="G9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H9" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="H9" s="2">
+        <f>Q10/N13</f>
+        <v>3783.32</v>
+      </c>
       <c r="I9" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="J9" s="2">
+        <f>R10/N13</f>
+        <v>47477.82</v>
+      </c>
       <c r="K9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L9" s="2"/>
+        <v>24</v>
+      </c>
+      <c r="L9" s="2">
+        <f>S10/N13</f>
+        <v>1376136.4</v>
+      </c>
       <c r="M9" t="s">
         <v>7</v>
       </c>
@@ -6939,54 +6975,72 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2">
         <f>N11/N13</f>
         <v>65</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" s="2">
         <f>O11/N13</f>
         <v>105.28</v>
       </c>
       <c r="E10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F10" s="2">
         <f>P11/N13</f>
         <v>452.16</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H10" s="2">
         <f>Q11/N13</f>
         <v>924.68</v>
       </c>
       <c r="I10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J10" s="2">
         <f>R11/N13</f>
         <v>10044</v>
       </c>
       <c r="K10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L10" s="2">
         <f>S11/N13</f>
         <v>100044</v>
       </c>
       <c r="M10" t="s">
-        <v>8</v>
+        <v>24</v>
+      </c>
+      <c r="N10">
+        <v>9442</v>
+      </c>
+      <c r="O10">
+        <v>19170</v>
+      </c>
+      <c r="P10">
+        <v>93423</v>
+      </c>
+      <c r="Q10">
+        <v>189166</v>
+      </c>
+      <c r="R10">
+        <v>2373891</v>
+      </c>
+      <c r="S10">
+        <v>68806820</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N11">
         <v>3250</v>
@@ -7009,7 +7063,7 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="M13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N13">
         <v>50</v>
